--- a/DATA_goal/Junction_Flooding_100.xlsx
+++ b/DATA_goal/Junction_Flooding_100.xlsx
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41532.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.2</v>
+        <v>3.52</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.47</v>
+        <v>2.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.79</v>
+        <v>3.98</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.01</v>
+        <v>2</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.15</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>189.49</v>
+        <v>18.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>35.89</v>
+        <v>3.59</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.35</v>
+        <v>1.13</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.64</v>
+        <v>3.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41532.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.81</v>
+        <v>4.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.22</v>
+        <v>4.02</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.94</v>
+        <v>6.79</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.86</v>
+        <v>2.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>1.54</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>266.23</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>50.24</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>33.44</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>15.43</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>20.93</v>
+        <v>2.09</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>62.03</v>
+        <v>6.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41532.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>1.21</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>152.92</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>29.53</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>19.61</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>12.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41532.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.7</v>
+        <v>3.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>131.16</v>
+        <v>13.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.48</v>
+        <v>2.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.55</v>
+        <v>1.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.42</v>
+        <v>3.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41532.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.59</v>
+        <v>3.26</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.49</v>
+        <v>2.65</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45.23</v>
+        <v>4.52</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>171.22</v>
+        <v>17.12</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.79</v>
+        <v>3.28</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>41.08</v>
+        <v>4.11</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41532.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41532.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V8" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="R8" s="4" t="n">
+      <c r="W8" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>84.34999999999999</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>4.38</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41532.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>21.68</v>
+        <v>2.17</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>77.5</v>
+        <v>7.75</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>19.75</v>
+        <v>1.98</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41532.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>20.69</v>
+        <v>2.07</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>28.17</v>
+        <v>2.82</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>106.08</v>
+        <v>10.61</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>25.57</v>
+        <v>2.56</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_100.xlsx
+++ b/DATA_goal/Junction_Flooding_100.xlsx
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>95.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.7</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.12</v>
+        <v>101.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.8</v>
+        <v>28.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.85</v>
+        <v>38.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.7</v>
+        <v>147</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.46</v>
+        <v>34.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_100.xlsx
+++ b/DATA_goal/Junction_Flooding_100.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.859</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.46</v>
+        <v>18.456</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.02</v>
+        <v>16.023</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.56</v>
+        <v>6.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.65</v>
+        <v>22.654</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.9</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>4.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.37</v>
+        <v>7.366</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.82</v>
+        <v>7.816</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.74</v>
+        <v>7.738</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.076</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.57</v>
+        <v>6.571</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.493</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.47</v>
+        <v>5.467</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>95.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.49</v>
+        <v>18.485</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.96</v>
+        <v>5.964</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.3</v>
+        <v>12.301</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.11</v>
+        <v>7.115</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.91</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.88</v>
+        <v>12.882</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>4.897</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.88</v>
+        <v>5.876</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.307</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.07</v>
+        <v>8.071</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.87</v>
+        <v>19.874</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.83</v>
+        <v>3.828</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.5</v>
+        <v>7.498</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.295999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.14</v>
+        <v>7.144</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.55</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.63</v>
+        <v>19.626</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.75</v>
+        <v>16.747</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7</v>
+        <v>7.005</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.22</v>
+        <v>27.215</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.7</v>
+        <v>10.696</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.92</v>
+        <v>4.924</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.64</v>
+        <v>7.642</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.1</v>
+        <v>8.097</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.31</v>
+        <v>8.308999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7</v>
+        <v>6.998</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.14</v>
+        <v>10.136</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.86</v>
+        <v>5.858</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.116</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.15</v>
+        <v>101.154</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.7</v>
+        <v>19.704</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.39</v>
+        <v>6.394</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.26</v>
+        <v>13.261</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>7.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.4</v>
+        <v>5.401</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.79</v>
+        <v>5.788</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.77</v>
+        <v>5.768</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.49</v>
+        <v>8.488</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.38</v>
+        <v>24.375</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.95</v>
+        <v>3.952</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.031000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.16</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_100.xlsx
+++ b/DATA_goal/Junction_Flooding_100.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,91 +967,91 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.11</v>
+        <v>13.108</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.05</v>
+        <v>28.047</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.58</v>
+        <v>23.582</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.07</v>
+        <v>10.067</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.46</v>
+        <v>38.464</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.45</v>
+        <v>15.452</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.03</v>
+        <v>7.032</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.71</v>
+        <v>10.708</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.91</v>
+        <v>11.907</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.23</v>
+        <v>3.233</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.03</v>
+        <v>10.034</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.47</v>
+        <v>14.467</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.375</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.416</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147</v>
+        <v>146.999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.13</v>
+        <v>28.129</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.215999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.02</v>
+        <v>19.016</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>10.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.335</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.48</v>
+        <v>19.475</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.96</v>
+        <v>7.956</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.76</v>
+        <v>7.764</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.366</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.99</v>
+        <v>11.992</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
@@ -1060,10 +1060,114 @@
         <v>34.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.53</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.27</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>48.16</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_100.xlsx
+++ b/DATA_goal/Junction_Flooding_100.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,91 +967,91 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.108</v>
+        <v>13.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.946999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.613</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.047</v>
+        <v>28.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.582</v>
+        <v>23.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.067</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.464</v>
+        <v>38.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.452</v>
+        <v>15.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.032</v>
+        <v>7.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.708</v>
+        <v>10.71</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.907</v>
+        <v>11.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.233</v>
+        <v>3.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.034</v>
+        <v>10.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.467</v>
+        <v>14.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.375</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.999</v>
+        <v>147</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.129</v>
+        <v>28.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.215999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.016</v>
+        <v>19.02</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>10.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.335</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.475</v>
+        <v>19.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.956</v>
+        <v>7.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.764</v>
+        <v>7.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.366</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.992</v>
+        <v>11.99</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
@@ -1060,114 +1060,10 @@
         <v>34.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.493</v>
+        <v>5.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.554</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.16</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.92</v>
+        <v>11.55</v>
       </c>
     </row>
   </sheetData>
